--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_107_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_107_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1796696490231597, 3.8091666617347673]</t>
+          <t>[3.174991554154743, 3.813844756603184]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.13540150621008573, 0.5124672610820507]</t>
+          <t>[0.13533991826342628, 0.5125288490287101]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.001191576713321707</v>
+        <v>0.001195524421431671</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001191576713321707</v>
+        <v>0.001195524421431671</v>
       </c>
       <c r="W2" t="n">
         <v>0.912432432432464</v>
